--- a/results.xlsx
+++ b/results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uporto-my.sharepoint.com/personal/up711114_up_pt/Documents/PhD/Hands-on Tutorial in AI/KMNIST-Classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user03\Documents\KMNIST-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F52720-F77E-494F-8A5D-E78AA8B20E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C070C7-ACE0-4CF7-B1AA-33357E19937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FB294F71-10D8-5049-B3E1-84DF0DAC1F45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25890" windowHeight="15540" activeTab="2" xr2:uid="{FB294F71-10D8-5049-B3E1-84DF0DAC1F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MLP_1H_test_results" sheetId="2" r:id="rId2"/>
+    <sheet name="Grid_Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Index</t>
   </si>
@@ -88,13 +89,31 @@
   </si>
   <si>
     <t>test_recall</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MLP 1H</t>
+  </si>
+  <si>
+    <t>169.51</t>
+  </si>
+  <si>
+    <t>Time (min)</t>
+  </si>
+  <si>
+    <t>MLP 3H</t>
+  </si>
+  <si>
+    <t>2565.62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -472,9 +491,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -496,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -507,7 +526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -518,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -529,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -540,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -551,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -562,7 +581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -573,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -584,7 +603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -604,17 +623,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158A8616-87A4-0B42-97A1-85163C9B4AB9}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -628,7 +647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>27</v>
       </c>
@@ -642,7 +661,7 @@
         <v>0.86809999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>39</v>
       </c>
@@ -656,7 +675,7 @@
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>53</v>
       </c>
@@ -670,7 +689,7 @@
         <v>0.88829999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>55</v>
       </c>
@@ -684,7 +703,7 @@
         <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>63</v>
       </c>
@@ -698,20 +717,10 @@
         <v>0.90159999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="B15" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -732,6 +741,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -744,4 +763,43 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E378B90E-AD50-48AF-AE9B-FAF666B70437}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>